--- a/docs/resources/NetworkDictionary_testCDM.xlsx
+++ b/docs/resources/NetworkDictionary_testCDM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FFE86D-A9A4-47F1-B49D-69B040A4A34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32841BCC-9C65-4D39-9803-275A3BDBC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TargetDataDictionaries" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="312">
   <si>
     <t>name</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>unit</t>
-  </si>
-  <si>
-    <t>references.table</t>
-  </si>
-  <si>
-    <t>references.name</t>
   </si>
   <si>
     <t>mandatory</t>
@@ -1321,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1367,10 +1361,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1412,11 +1406,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -1429,22 +1421,20 @@
     <col min="7" max="7" width="76.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.58984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="230.6796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="230.6796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -1471,39 +1461,33 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
       <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -1512,27 +1496,27 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -1541,27 +1525,27 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -1570,27 +1554,27 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -1599,27 +1583,27 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -1628,16 +1612,16 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -1657,16 +1641,16 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1677,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
@@ -1686,16 +1670,16 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1706,7 +1690,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -1715,27 +1699,27 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -1744,27 +1728,27 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -1773,27 +1757,27 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -1802,27 +1786,27 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
         <v>66</v>
-      </c>
-      <c r="M12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -1831,27 +1815,27 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -1860,27 +1844,27 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>72</v>
-      </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -1889,30 +1873,30 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
         <v>75</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>76</v>
       </c>
-      <c r="I15" t="s">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>77</v>
-      </c>
-      <c r="M15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -1921,27 +1905,27 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
@@ -1950,27 +1934,27 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>83</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
@@ -1979,27 +1963,27 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
         <v>86</v>
-      </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -2008,27 +1992,27 @@
         <v>14</v>
       </c>
       <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
@@ -2037,30 +2021,30 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" t="s">
         <v>92</v>
       </c>
-      <c r="H20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
         <v>93</v>
-      </c>
-      <c r="M20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
       </c>
       <c r="E21" t="s">
         <v>1</v>
@@ -2069,27 +2053,27 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
         <v>96</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -2098,30 +2082,30 @@
         <v>13</v>
       </c>
       <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
         <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -2130,30 +2114,30 @@
         <v>14</v>
       </c>
       <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" t="s">
         <v>102</v>
       </c>
-      <c r="H23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
         <v>103</v>
-      </c>
-      <c r="M23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>105</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -2162,30 +2146,30 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
         <v>106</v>
-      </c>
-      <c r="H24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s">
-        <v>103</v>
-      </c>
-      <c r="M24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -2194,30 +2178,30 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
         <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" t="s">
-        <v>103</v>
-      </c>
-      <c r="M25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -2226,30 +2210,30 @@
         <v>13</v>
       </c>
       <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
         <v>112</v>
-      </c>
-      <c r="H26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>114</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -2258,30 +2242,30 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" t="s">
         <v>115</v>
       </c>
-      <c r="H27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
         <v>116</v>
-      </c>
-      <c r="M27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -2290,30 +2274,30 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
         <v>119</v>
-      </c>
-      <c r="H28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s">
-        <v>116</v>
-      </c>
-      <c r="M28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s">
-        <v>121</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -2322,30 +2306,30 @@
         <v>14</v>
       </c>
       <c r="G29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
         <v>122</v>
-      </c>
-      <c r="H29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>124</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
@@ -2354,30 +2338,30 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
         <v>125</v>
-      </c>
-      <c r="H30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s">
-        <v>116</v>
-      </c>
-      <c r="M30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>127</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -2386,30 +2370,30 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s">
+        <v>127</v>
+      </c>
+      <c r="K31" t="s">
         <v>128</v>
       </c>
-      <c r="H31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
         <v>129</v>
-      </c>
-      <c r="M31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" t="s">
-        <v>131</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -2418,30 +2402,30 @@
         <v>13</v>
       </c>
       <c r="G32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" t="s">
         <v>132</v>
       </c>
-      <c r="H32" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
         <v>133</v>
-      </c>
-      <c r="M32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>135</v>
       </c>
       <c r="E33" t="s">
         <v>1</v>
@@ -2450,30 +2434,30 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" t="s">
         <v>136</v>
       </c>
-      <c r="H33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" t="s">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
         <v>137</v>
-      </c>
-      <c r="M33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" t="s">
-        <v>139</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -2482,30 +2466,30 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" t="s">
         <v>140</v>
       </c>
-      <c r="H34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
         <v>141</v>
-      </c>
-      <c r="M34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s">
-        <v>143</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
@@ -2514,30 +2498,30 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s">
+        <v>135</v>
+      </c>
+      <c r="K35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
         <v>144</v>
-      </c>
-      <c r="H35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" t="s">
-        <v>137</v>
-      </c>
-      <c r="M35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" t="s">
-        <v>146</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
@@ -2546,30 +2530,30 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
         <v>147</v>
-      </c>
-      <c r="H36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s">
-        <v>141</v>
-      </c>
-      <c r="M36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>149</v>
       </c>
       <c r="E37" t="s">
         <v>1</v>
@@ -2578,30 +2562,30 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
         <v>150</v>
-      </c>
-      <c r="H37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s">
-        <v>77</v>
-      </c>
-      <c r="M37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s">
-        <v>152</v>
       </c>
       <c r="E38" t="s">
         <v>1</v>
@@ -2610,30 +2594,30 @@
         <v>13</v>
       </c>
       <c r="G38" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
         <v>153</v>
-      </c>
-      <c r="H38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s">
-        <v>77</v>
-      </c>
-      <c r="M38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>155</v>
       </c>
       <c r="E39" t="s">
         <v>1</v>
@@ -2642,30 +2626,30 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
         <v>156</v>
-      </c>
-      <c r="H39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s">
-        <v>77</v>
-      </c>
-      <c r="M39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s">
-        <v>158</v>
       </c>
       <c r="E40" t="s">
         <v>1</v>
@@ -2674,27 +2658,27 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
         <v>159</v>
-      </c>
-      <c r="H40" t="s">
-        <v>38</v>
-      </c>
-      <c r="M40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" t="s">
-        <v>161</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -2703,27 +2687,27 @@
         <v>14</v>
       </c>
       <c r="G41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
         <v>162</v>
-      </c>
-      <c r="H41" t="s">
-        <v>38</v>
-      </c>
-      <c r="M41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" t="s">
-        <v>164</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
@@ -2732,27 +2716,27 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
         <v>165</v>
-      </c>
-      <c r="H42" t="s">
-        <v>38</v>
-      </c>
-      <c r="M42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" t="s">
-        <v>167</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -2761,30 +2745,30 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
         <v>168</v>
-      </c>
-      <c r="H43" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" t="s">
-        <v>77</v>
-      </c>
-      <c r="M43" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" t="s">
-        <v>170</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -2793,27 +2777,27 @@
         <v>13</v>
       </c>
       <c r="G44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
         <v>171</v>
-      </c>
-      <c r="H44" t="s">
-        <v>38</v>
-      </c>
-      <c r="M44" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" t="s">
-        <v>173</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -2822,27 +2806,27 @@
         <v>14</v>
       </c>
       <c r="G45" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
         <v>174</v>
-      </c>
-      <c r="H45" t="s">
-        <v>38</v>
-      </c>
-      <c r="M45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" t="s">
-        <v>176</v>
       </c>
       <c r="E46" t="s">
         <v>1</v>
@@ -2851,27 +2835,27 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
         <v>177</v>
-      </c>
-      <c r="H46" t="s">
-        <v>38</v>
-      </c>
-      <c r="M46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" t="s">
-        <v>179</v>
       </c>
       <c r="E47" t="s">
         <v>1</v>
@@ -2880,27 +2864,27 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
         <v>180</v>
-      </c>
-      <c r="H47" t="s">
-        <v>38</v>
-      </c>
-      <c r="M47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" t="s">
-        <v>182</v>
       </c>
       <c r="E48" t="s">
         <v>1</v>
@@ -2909,27 +2893,27 @@
         <v>13</v>
       </c>
       <c r="G48" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
         <v>183</v>
-      </c>
-      <c r="H48" t="s">
-        <v>38</v>
-      </c>
-      <c r="M48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" t="s">
-        <v>185</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -2938,27 +2922,27 @@
         <v>14</v>
       </c>
       <c r="G49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
         <v>186</v>
-      </c>
-      <c r="H49" t="s">
-        <v>38</v>
-      </c>
-      <c r="M49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" t="s">
-        <v>188</v>
       </c>
       <c r="E50" t="s">
         <v>1</v>
@@ -2967,27 +2951,27 @@
         <v>13</v>
       </c>
       <c r="G50" t="s">
+        <v>187</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
         <v>189</v>
-      </c>
-      <c r="H50" t="s">
-        <v>38</v>
-      </c>
-      <c r="M50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" t="s">
-        <v>191</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
@@ -2996,30 +2980,30 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
+        <v>191</v>
+      </c>
+      <c r="K51" t="s">
         <v>192</v>
       </c>
-      <c r="H51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I51" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
         <v>193</v>
-      </c>
-      <c r="M51" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" t="s">
-        <v>195</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
@@ -3028,27 +3012,27 @@
         <v>13</v>
       </c>
       <c r="G52" t="s">
+        <v>194</v>
+      </c>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
         <v>196</v>
-      </c>
-      <c r="H52" t="s">
-        <v>38</v>
-      </c>
-      <c r="M52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" t="s">
-        <v>198</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
@@ -3057,27 +3041,27 @@
         <v>14</v>
       </c>
       <c r="G53" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
         <v>199</v>
-      </c>
-      <c r="H53" t="s">
-        <v>38</v>
-      </c>
-      <c r="M53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" t="s">
-        <v>201</v>
       </c>
       <c r="E54" t="s">
         <v>1</v>
@@ -3086,27 +3070,27 @@
         <v>13</v>
       </c>
       <c r="G54" t="s">
+        <v>200</v>
+      </c>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
         <v>202</v>
-      </c>
-      <c r="H54" t="s">
-        <v>38</v>
-      </c>
-      <c r="M54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>204</v>
       </c>
       <c r="E55" t="s">
         <v>1</v>
@@ -3115,27 +3099,27 @@
         <v>14</v>
       </c>
       <c r="G55" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" t="s">
         <v>205</v>
-      </c>
-      <c r="H55" t="s">
-        <v>38</v>
-      </c>
-      <c r="M55" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" t="s">
-        <v>207</v>
       </c>
       <c r="E56" t="s">
         <v>1</v>
@@ -3144,27 +3128,27 @@
         <v>13</v>
       </c>
       <c r="G56" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
         <v>208</v>
-      </c>
-      <c r="H56" t="s">
-        <v>38</v>
-      </c>
-      <c r="M56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" t="s">
-        <v>210</v>
       </c>
       <c r="E57" t="s">
         <v>1</v>
@@ -3173,27 +3157,27 @@
         <v>14</v>
       </c>
       <c r="G57" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
         <v>211</v>
-      </c>
-      <c r="H57" t="s">
-        <v>38</v>
-      </c>
-      <c r="M57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" t="s">
-        <v>213</v>
       </c>
       <c r="E58" t="s">
         <v>1</v>
@@ -3202,27 +3186,27 @@
         <v>13</v>
       </c>
       <c r="G58" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
         <v>214</v>
-      </c>
-      <c r="H58" t="s">
-        <v>38</v>
-      </c>
-      <c r="M58" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" t="s">
-        <v>216</v>
       </c>
       <c r="E59" t="s">
         <v>1</v>
@@ -3231,27 +3215,27 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
         <v>217</v>
-      </c>
-      <c r="H59" t="s">
-        <v>38</v>
-      </c>
-      <c r="M59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" t="s">
-        <v>219</v>
       </c>
       <c r="E60" t="s">
         <v>1</v>
@@ -3260,27 +3244,27 @@
         <v>13</v>
       </c>
       <c r="G60" t="s">
+        <v>218</v>
+      </c>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
+      <c r="K60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s">
         <v>220</v>
-      </c>
-      <c r="H60" t="s">
-        <v>38</v>
-      </c>
-      <c r="M60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" t="s">
-        <v>222</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
@@ -3289,27 +3273,27 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
+        <v>221</v>
+      </c>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s">
         <v>223</v>
-      </c>
-      <c r="H61" t="s">
-        <v>38</v>
-      </c>
-      <c r="M61" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" t="s">
-        <v>225</v>
       </c>
       <c r="E62" t="s">
         <v>1</v>
@@ -3318,30 +3302,30 @@
         <v>13</v>
       </c>
       <c r="G62" t="s">
+        <v>224</v>
+      </c>
+      <c r="H62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s">
+        <v>191</v>
+      </c>
+      <c r="K62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
         <v>226</v>
-      </c>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s">
-        <v>193</v>
-      </c>
-      <c r="M62" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" t="s">
-        <v>228</v>
       </c>
       <c r="E63" t="s">
         <v>1</v>
@@ -3350,27 +3334,27 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
+        <v>227</v>
+      </c>
+      <c r="H63" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
         <v>229</v>
-      </c>
-      <c r="H63" t="s">
-        <v>66</v>
-      </c>
-      <c r="M63" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" t="s">
-        <v>231</v>
       </c>
       <c r="E64" t="s">
         <v>1</v>
@@ -3379,30 +3363,30 @@
         <v>13</v>
       </c>
       <c r="G64" t="s">
+        <v>230</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
+        <v>191</v>
+      </c>
+      <c r="K64" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
         <v>232</v>
-      </c>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s">
-        <v>193</v>
-      </c>
-      <c r="M64" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" t="s">
-        <v>234</v>
       </c>
       <c r="E65" t="s">
         <v>1</v>
@@ -3411,27 +3395,27 @@
         <v>14</v>
       </c>
       <c r="G65" t="s">
+        <v>233</v>
+      </c>
+      <c r="H65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
         <v>235</v>
-      </c>
-      <c r="H65" t="s">
-        <v>66</v>
-      </c>
-      <c r="M65" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A66" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" t="s">
-        <v>237</v>
       </c>
       <c r="E66" t="s">
         <v>1</v>
@@ -3440,27 +3424,27 @@
         <v>13</v>
       </c>
       <c r="G66" t="s">
+        <v>236</v>
+      </c>
+      <c r="H66" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
         <v>238</v>
-      </c>
-      <c r="H66" t="s">
-        <v>66</v>
-      </c>
-      <c r="M66" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" t="s">
-        <v>240</v>
       </c>
       <c r="E67" t="s">
         <v>1</v>
@@ -3469,27 +3453,27 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
+        <v>239</v>
+      </c>
+      <c r="H67" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
         <v>241</v>
-      </c>
-      <c r="H67" t="s">
-        <v>66</v>
-      </c>
-      <c r="M67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" t="s">
-        <v>243</v>
       </c>
       <c r="E68" t="s">
         <v>1</v>
@@ -3498,27 +3482,27 @@
         <v>13</v>
       </c>
       <c r="G68" t="s">
+        <v>242</v>
+      </c>
+      <c r="H68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K68" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" t="s">
         <v>244</v>
-      </c>
-      <c r="H68" t="s">
-        <v>66</v>
-      </c>
-      <c r="M68" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" t="s">
-        <v>246</v>
       </c>
       <c r="E69" t="s">
         <v>1</v>
@@ -3527,27 +3511,27 @@
         <v>14</v>
       </c>
       <c r="G69" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69" t="s">
+        <v>64</v>
+      </c>
+      <c r="K69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
         <v>247</v>
-      </c>
-      <c r="H69" t="s">
-        <v>66</v>
-      </c>
-      <c r="M69" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" t="s">
-        <v>249</v>
       </c>
       <c r="E70" t="s">
         <v>1</v>
@@ -3556,27 +3540,27 @@
         <v>13</v>
       </c>
       <c r="G70" t="s">
+        <v>248</v>
+      </c>
+      <c r="H70" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
         <v>250</v>
-      </c>
-      <c r="H70" t="s">
-        <v>66</v>
-      </c>
-      <c r="M70" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" t="s">
-        <v>252</v>
       </c>
       <c r="E71" t="s">
         <v>1</v>
@@ -3585,30 +3569,30 @@
         <v>14</v>
       </c>
       <c r="G71" t="s">
+        <v>251</v>
+      </c>
+      <c r="H71" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s">
+        <v>191</v>
+      </c>
+      <c r="K71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
         <v>253</v>
-      </c>
-      <c r="H71" t="s">
-        <v>76</v>
-      </c>
-      <c r="I71" t="s">
-        <v>193</v>
-      </c>
-      <c r="M71" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" t="s">
-        <v>255</v>
       </c>
       <c r="E72" t="s">
         <v>1</v>
@@ -3617,27 +3601,27 @@
         <v>13</v>
       </c>
       <c r="G72" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72" t="s">
+        <v>36</v>
+      </c>
+      <c r="K72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
         <v>256</v>
-      </c>
-      <c r="H72" t="s">
-        <v>38</v>
-      </c>
-      <c r="M72" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" t="s">
-        <v>258</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
@@ -3646,27 +3630,27 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
         <v>259</v>
-      </c>
-      <c r="H73" t="s">
-        <v>38</v>
-      </c>
-      <c r="M73" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" t="s">
-        <v>261</v>
       </c>
       <c r="E74" t="s">
         <v>1</v>
@@ -3675,27 +3659,27 @@
         <v>13</v>
       </c>
       <c r="G74" t="s">
+        <v>260</v>
+      </c>
+      <c r="H74" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
         <v>262</v>
-      </c>
-      <c r="H74" t="s">
-        <v>38</v>
-      </c>
-      <c r="M74" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" t="s">
-        <v>264</v>
       </c>
       <c r="E75" t="s">
         <v>1</v>
@@ -3704,27 +3688,27 @@
         <v>14</v>
       </c>
       <c r="G75" t="s">
+        <v>263</v>
+      </c>
+      <c r="H75" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
         <v>265</v>
-      </c>
-      <c r="H75" t="s">
-        <v>38</v>
-      </c>
-      <c r="M75" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" t="s">
-        <v>267</v>
       </c>
       <c r="E76" t="s">
         <v>1</v>
@@ -3733,27 +3717,27 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
+        <v>266</v>
+      </c>
+      <c r="H76" t="s">
+        <v>36</v>
+      </c>
+      <c r="K76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
         <v>268</v>
-      </c>
-      <c r="H76" t="s">
-        <v>38</v>
-      </c>
-      <c r="M76" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A77" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" t="s">
-        <v>270</v>
       </c>
       <c r="E77" t="s">
         <v>1</v>
@@ -3762,27 +3746,27 @@
         <v>14</v>
       </c>
       <c r="G77" t="s">
+        <v>269</v>
+      </c>
+      <c r="H77" t="s">
+        <v>36</v>
+      </c>
+      <c r="K77" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
         <v>271</v>
-      </c>
-      <c r="H77" t="s">
-        <v>38</v>
-      </c>
-      <c r="M77" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" t="s">
-        <v>273</v>
       </c>
       <c r="E78" t="s">
         <v>1</v>
@@ -3791,27 +3775,27 @@
         <v>13</v>
       </c>
       <c r="G78" t="s">
+        <v>272</v>
+      </c>
+      <c r="H78" t="s">
+        <v>36</v>
+      </c>
+      <c r="K78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
         <v>274</v>
-      </c>
-      <c r="H78" t="s">
-        <v>38</v>
-      </c>
-      <c r="M78" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" t="s">
-        <v>276</v>
       </c>
       <c r="E79" t="s">
         <v>1</v>
@@ -3820,27 +3804,27 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
+        <v>275</v>
+      </c>
+      <c r="H79" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
         <v>277</v>
-      </c>
-      <c r="H79" t="s">
-        <v>38</v>
-      </c>
-      <c r="M79" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s">
-        <v>279</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
@@ -3849,27 +3833,27 @@
         <v>13</v>
       </c>
       <c r="G80" t="s">
+        <v>278</v>
+      </c>
+      <c r="H80" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
         <v>280</v>
-      </c>
-      <c r="H80" t="s">
-        <v>38</v>
-      </c>
-      <c r="M80" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" t="s">
-        <v>282</v>
       </c>
       <c r="E81" t="s">
         <v>1</v>
@@ -3878,27 +3862,27 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
+        <v>281</v>
+      </c>
+      <c r="H81" t="s">
+        <v>36</v>
+      </c>
+      <c r="K81" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
         <v>283</v>
-      </c>
-      <c r="H81" t="s">
-        <v>38</v>
-      </c>
-      <c r="M81" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" t="s">
-        <v>285</v>
       </c>
       <c r="E82" t="s">
         <v>1</v>
@@ -3907,27 +3891,27 @@
         <v>13</v>
       </c>
       <c r="G82" t="s">
+        <v>284</v>
+      </c>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
         <v>286</v>
-      </c>
-      <c r="H82" t="s">
-        <v>38</v>
-      </c>
-      <c r="M82" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" t="s">
-        <v>288</v>
       </c>
       <c r="E83" t="s">
         <v>1</v>
@@ -3936,27 +3920,27 @@
         <v>14</v>
       </c>
       <c r="G83" t="s">
+        <v>287</v>
+      </c>
+      <c r="H83" t="s">
+        <v>36</v>
+      </c>
+      <c r="K83" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s">
         <v>289</v>
-      </c>
-      <c r="H83" t="s">
-        <v>38</v>
-      </c>
-      <c r="M83" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" t="s">
-        <v>291</v>
       </c>
       <c r="E84" t="s">
         <v>1</v>
@@ -3965,27 +3949,27 @@
         <v>13</v>
       </c>
       <c r="G84" t="s">
+        <v>290</v>
+      </c>
+      <c r="H84" t="s">
+        <v>36</v>
+      </c>
+      <c r="K84" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
         <v>292</v>
-      </c>
-      <c r="H84" t="s">
-        <v>38</v>
-      </c>
-      <c r="M84" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" t="s">
-        <v>294</v>
       </c>
       <c r="E85" t="s">
         <v>1</v>
@@ -3994,13 +3978,13 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H85" t="s">
-        <v>38</v>
-      </c>
-      <c r="M85" t="s">
-        <v>296</v>
+        <v>36</v>
+      </c>
+      <c r="K85" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4030,10 +4014,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -4048,10 +4032,10 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +4048,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4072,9 +4056,9 @@
     <col min="1" max="1" width="20.31640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.76953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.2265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.04296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.58984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.2265625" bestFit="1" customWidth="1"/>
@@ -4082,31 +4066,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" t="s">
         <v>299</v>
-      </c>
-      <c r="D1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" t="s">
-        <v>301</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.75">
@@ -4120,13 +4104,13 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.75">
@@ -4140,13 +4124,13 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.75">
@@ -4160,13 +4144,13 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.75">
@@ -4180,13 +4164,13 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
